--- a/userCreds.xlsx
+++ b/userCreds.xlsx
@@ -1,34 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david.murga/Repos/School/3K04/pacemaker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34260897-9878-5445-8DB5-144818FC74A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>User Id</t>
+  </si>
+  <si>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>6a679c33</t>
+  </si>
+  <si>
+    <t>janedoe</t>
+  </si>
+  <si>
+    <t>aabf2487</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>9ae85a7c</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,12 +86,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -340,194 +388,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Password</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Lower Rate Limit</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Upper Rate Limit</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Atrial Amplitude</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Atrial Pulse Width</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Ventricular Amplitude</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Ventricular Pulse Width</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>VRP</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>ARP</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>d9d793e1</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>orange</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5ea280cf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>johndoe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6a679c33</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>janedoe</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>aabf2487</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/userCreds.xlsx
+++ b/userCreds.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david.murga/Repos/School/3K04/pacemaker/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34260897-9878-5445-8DB5-144818FC74A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>User Id</t>
-  </si>
-  <si>
-    <t>johndoe</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>6a679c33</t>
-  </si>
-  <si>
-    <t>janedoe</t>
-  </si>
-  <si>
-    <t>aabf2487</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>9ae85a7c</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -388,57 +339,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>User Id</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>johndoe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6a679c33</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>janedoe</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>aabf2487</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9ae85a7c</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/userCreds.xlsx
+++ b/userCreds.xlsx
@@ -344,7 +344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C7"/>
@@ -420,6 +420,40 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>beep</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6db583a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mac</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>d0a1250e</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
